--- a/dataanalysis/data/predictions/1000/09220948_0949.xlsx
+++ b/dataanalysis/data/predictions/1000/09220948_0949.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -401,12 +404,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -764,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,19 +870,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300043</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.57</v>
@@ -903,7 +903,7 @@
         <v>12904.28</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -945,10 +945,25 @@
         <v>-0.04</v>
       </c>
       <c r="X2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y2">
+        <v>-2.46</v>
+      </c>
+      <c r="Z2">
+        <v>6.95</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -956,22 +971,25 @@
       <c r="AG2">
         <v>3.303857803344727</v>
       </c>
-      <c r="AH2" t="s">
-        <v>129</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300049</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1.08</v>
@@ -989,7 +1007,7 @@
         <v>25280.19</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>18</v>
@@ -1031,10 +1049,25 @@
         <v>-0.03</v>
       </c>
       <c r="X3" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y3">
+        <v>-1.45</v>
+      </c>
+      <c r="Z3">
+        <v>81.2</v>
+      </c>
+      <c r="AA3">
+        <v>-0.45</v>
       </c>
       <c r="AC3" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1042,22 +1075,25 @@
       <c r="AG3">
         <v>3.929002046585083</v>
       </c>
-      <c r="AH3" t="s">
-        <v>129</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300133</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.01</v>
@@ -1075,7 +1111,7 @@
         <v>52199.94</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1116,8 +1152,23 @@
       <c r="W4">
         <v>0.01</v>
       </c>
+      <c r="Y4">
+        <v>-1.17</v>
+      </c>
+      <c r="Z4">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>-1.14</v>
+      </c>
       <c r="AC4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1125,22 +1176,25 @@
       <c r="AG4">
         <v>4.415989398956299</v>
       </c>
-      <c r="AH4" t="s">
-        <v>129</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300331</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.61</v>
@@ -1158,7 +1212,7 @@
         <v>58537.24</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1200,10 +1254,25 @@
         <v>-0.25</v>
       </c>
       <c r="X5" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y5">
+        <v>-3.71</v>
+      </c>
+      <c r="Z5">
+        <v>38.56</v>
+      </c>
+      <c r="AA5">
+        <v>0.16</v>
       </c>
       <c r="AC5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1211,22 +1280,25 @@
       <c r="AG5">
         <v>1.511738181114197</v>
       </c>
-      <c r="AH5" t="s">
-        <v>129</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300433</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.59</v>
@@ -1244,7 +1316,7 @@
         <v>203452.19</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1285,8 +1357,23 @@
       <c r="W6">
         <v>0.17</v>
       </c>
+      <c r="Y6">
+        <v>-2.9</v>
+      </c>
+      <c r="Z6">
+        <v>33.26</v>
+      </c>
+      <c r="AA6">
+        <v>2.28</v>
+      </c>
       <c r="AC6" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1294,22 +1381,25 @@
       <c r="AG6">
         <v>-7.236663818359375</v>
       </c>
-      <c r="AH6" t="s">
-        <v>129</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300475</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.08</v>
@@ -1327,7 +1417,7 @@
         <v>117051.37</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -1369,10 +1459,25 @@
         <v>-0.11</v>
       </c>
       <c r="X7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y7">
+        <v>-4.92</v>
+      </c>
+      <c r="Z7">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>10.1</v>
       </c>
       <c r="AC7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1380,22 +1485,25 @@
       <c r="AG7">
         <v>4.718625068664551</v>
       </c>
-      <c r="AH7" t="s">
-        <v>129</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300499</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.81</v>
@@ -1413,7 +1521,7 @@
         <v>45395.23</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1455,10 +1563,25 @@
         <v>0.02</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y8">
+        <v>-1.27</v>
+      </c>
+      <c r="Z8">
+        <v>36.19</v>
+      </c>
+      <c r="AA8">
+        <v>10.07</v>
       </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1466,22 +1589,25 @@
       <c r="AG8">
         <v>2.249216794967651</v>
       </c>
-      <c r="AH8" t="s">
-        <v>129</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300507</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.08</v>
@@ -1499,7 +1625,7 @@
         <v>20076.16</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1541,10 +1667,25 @@
         <v>-0.16</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y9">
+        <v>0.6</v>
+      </c>
+      <c r="Z9">
+        <v>10.28</v>
+      </c>
+      <c r="AA9">
+        <v>1.78</v>
       </c>
       <c r="AC9" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1552,22 +1693,25 @@
       <c r="AG9">
         <v>3.66191840171814</v>
       </c>
-      <c r="AH9" t="s">
-        <v>129</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300521</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.19</v>
@@ -1585,7 +1729,7 @@
         <v>9133.98</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1627,10 +1771,25 @@
         <v>0.11</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y10">
+        <v>-3.98</v>
+      </c>
+      <c r="Z10">
+        <v>33.81</v>
+      </c>
+      <c r="AA10">
+        <v>6.93</v>
       </c>
       <c r="AC10" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1638,22 +1797,25 @@
       <c r="AG10">
         <v>4.780002117156982</v>
       </c>
-      <c r="AH10" t="s">
-        <v>129</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300539</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>13.69</v>
@@ -1671,7 +1833,7 @@
         <v>63392.61</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11">
         <v>12</v>
@@ -1713,10 +1875,25 @@
         <v>0.45</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y11">
+        <v>1.34</v>
+      </c>
+      <c r="Z11">
+        <v>52.89</v>
+      </c>
+      <c r="AA11">
+        <v>15.15</v>
       </c>
       <c r="AC11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1724,22 +1901,25 @@
       <c r="AG11">
         <v>6.585206985473633</v>
       </c>
-      <c r="AH11" t="s">
-        <v>129</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300604</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.6899999999999999</v>
@@ -1757,7 +1937,7 @@
         <v>33437.6</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>19</v>
@@ -1799,10 +1979,25 @@
         <v>0.03</v>
       </c>
       <c r="X12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>80.27</v>
+      </c>
+      <c r="AA12">
+        <v>24.58</v>
       </c>
       <c r="AC12" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1810,22 +2005,25 @@
       <c r="AG12">
         <v>4.913454532623291</v>
       </c>
-      <c r="AH12" t="s">
-        <v>129</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300620</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>5.47</v>
@@ -1843,7 +2041,7 @@
         <v>178107.16</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1885,10 +2083,25 @@
         <v>0.08</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y13">
+        <v>-1.85</v>
+      </c>
+      <c r="Z13">
+        <v>140.6</v>
+      </c>
+      <c r="AA13">
+        <v>6.35</v>
       </c>
       <c r="AC13" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1896,22 +2109,25 @@
       <c r="AG13">
         <v>6.953836917877197</v>
       </c>
-      <c r="AH13" t="s">
-        <v>130</v>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300680</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.07</v>
@@ -1929,7 +2145,7 @@
         <v>18818.99</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -1971,10 +2187,25 @@
         <v>-0.09</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y14">
+        <v>6.93</v>
+      </c>
+      <c r="Z14">
+        <v>64.2</v>
+      </c>
+      <c r="AA14">
+        <v>6.2</v>
       </c>
       <c r="AC14" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1982,22 +2213,25 @@
       <c r="AG14">
         <v>6.030321598052979</v>
       </c>
-      <c r="AH14" t="s">
-        <v>129</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300684</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.57</v>
@@ -2015,7 +2249,7 @@
         <v>38531.22</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2057,10 +2291,25 @@
         <v>0.28</v>
       </c>
       <c r="X15" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y15">
+        <v>-4.84</v>
+      </c>
+      <c r="Z15">
+        <v>45.5</v>
+      </c>
+      <c r="AA15">
+        <v>3.1</v>
       </c>
       <c r="AC15" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2068,22 +2317,25 @@
       <c r="AG15">
         <v>4.409636974334717</v>
       </c>
-      <c r="AH15" t="s">
-        <v>129</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300814</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-2.65</v>
@@ -2101,7 +2353,7 @@
         <v>14806.81</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2143,10 +2395,25 @@
         <v>-0.04</v>
       </c>
       <c r="X16" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Y16">
+        <v>-0.67</v>
+      </c>
+      <c r="Z16">
+        <v>58.5</v>
+      </c>
+      <c r="AA16">
+        <v>15.57</v>
       </c>
       <c r="AC16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2154,22 +2421,25 @@
       <c r="AG16">
         <v>3.264269590377808</v>
       </c>
-      <c r="AH16" t="s">
-        <v>129</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300843</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.17</v>
@@ -2187,7 +2457,7 @@
         <v>24187.35</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2229,10 +2499,25 @@
         <v>0.25</v>
       </c>
       <c r="X17" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y17">
+        <v>-6.78</v>
+      </c>
+      <c r="Z17">
+        <v>61.98</v>
+      </c>
+      <c r="AA17">
+        <v>1.92</v>
       </c>
       <c r="AC17" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2240,22 +2525,25 @@
       <c r="AG17">
         <v>3.113065242767334</v>
       </c>
-      <c r="AH17" t="s">
-        <v>129</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300857</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.18</v>
@@ -2273,7 +2561,7 @@
         <v>145170.02</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>22</v>
@@ -2315,10 +2603,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X18" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y18">
+        <v>-3.46</v>
+      </c>
+      <c r="Z18">
+        <v>179.59</v>
+      </c>
+      <c r="AA18">
+        <v>6.5</v>
       </c>
       <c r="AC18" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2326,22 +2629,25 @@
       <c r="AG18">
         <v>-30.64766502380371</v>
       </c>
-      <c r="AH18" t="s">
-        <v>129</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300859</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-5.6</v>
@@ -2359,7 +2665,7 @@
         <v>43099.79</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2401,10 +2707,25 @@
         <v>-0.16</v>
       </c>
       <c r="X19" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y19">
+        <v>-7.81</v>
+      </c>
+      <c r="Z19">
+        <v>54.5</v>
+      </c>
+      <c r="AA19">
+        <v>1.3</v>
       </c>
       <c r="AC19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2412,22 +2733,25 @@
       <c r="AG19">
         <v>0.4228651821613312</v>
       </c>
-      <c r="AH19" t="s">
-        <v>129</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300959</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>6.15</v>
@@ -2445,7 +2769,7 @@
         <v>36561.37</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2487,10 +2811,25 @@
         <v>0.72</v>
       </c>
       <c r="X20" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y20">
+        <v>-0.75</v>
+      </c>
+      <c r="Z20">
+        <v>82.19</v>
+      </c>
+      <c r="AA20">
+        <v>7.44</v>
       </c>
       <c r="AC20" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2498,22 +2837,25 @@
       <c r="AG20">
         <v>3.8154456615448</v>
       </c>
-      <c r="AH20" t="s">
-        <v>129</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300969</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.59</v>
@@ -2531,7 +2873,7 @@
         <v>9070.360000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2573,10 +2915,25 @@
         <v>-0.03</v>
       </c>
       <c r="X21" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y21">
+        <v>15.26</v>
+      </c>
+      <c r="Z21">
+        <v>143.7</v>
+      </c>
+      <c r="AA21">
+        <v>24.22</v>
       </c>
       <c r="AC21" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2584,22 +2941,25 @@
       <c r="AG21">
         <v>4.197099208831787</v>
       </c>
-      <c r="AH21" t="s">
-        <v>129</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300984</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.41</v>
@@ -2617,7 +2977,7 @@
         <v>8578.93</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2659,10 +3019,25 @@
         <v>-0.01</v>
       </c>
       <c r="X22" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y22">
+        <v>-1.48</v>
+      </c>
+      <c r="Z22">
+        <v>78.72</v>
+      </c>
+      <c r="AA22">
+        <v>3.59</v>
       </c>
       <c r="AC22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2670,22 +3045,25 @@
       <c r="AG22">
         <v>6.718009471893311</v>
       </c>
-      <c r="AH22" t="s">
-        <v>129</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301008</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.33</v>
@@ -2703,7 +3081,7 @@
         <v>25431.87</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2745,10 +3123,25 @@
         <v>0.29</v>
       </c>
       <c r="X23" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y23">
+        <v>8.16</v>
+      </c>
+      <c r="Z23">
+        <v>55.05</v>
+      </c>
+      <c r="AA23">
+        <v>25.11</v>
       </c>
       <c r="AC23" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2756,22 +3149,25 @@
       <c r="AG23">
         <v>2.493382453918457</v>
       </c>
-      <c r="AH23" t="s">
-        <v>129</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301013</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>10.67</v>
@@ -2789,7 +3185,7 @@
         <v>104057.27</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2831,10 +3227,25 @@
         <v>-0.03</v>
       </c>
       <c r="X24" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y24">
+        <v>-2.89</v>
+      </c>
+      <c r="Z24">
+        <v>30.88</v>
+      </c>
+      <c r="AA24">
+        <v>4.86</v>
       </c>
       <c r="AC24" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2842,22 +3253,25 @@
       <c r="AG24">
         <v>2.630683660507202</v>
       </c>
-      <c r="AH24" t="s">
-        <v>129</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301018</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.18</v>
@@ -2875,7 +3289,7 @@
         <v>33111.87</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2917,10 +3331,25 @@
         <v>0.18</v>
       </c>
       <c r="X25" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y25">
+        <v>-5.3</v>
+      </c>
+      <c r="Z25">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA25">
+        <v>4.84</v>
       </c>
       <c r="AC25" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2928,22 +3357,25 @@
       <c r="AG25">
         <v>4.895059108734131</v>
       </c>
-      <c r="AH25" t="s">
-        <v>129</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301123</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.62</v>
@@ -2961,7 +3393,7 @@
         <v>13992.79</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3003,10 +3435,25 @@
         <v>0.01</v>
       </c>
       <c r="X26" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y26">
+        <v>-5.12</v>
+      </c>
+      <c r="Z26">
+        <v>52.36</v>
+      </c>
+      <c r="AA26">
+        <v>2.27</v>
       </c>
       <c r="AC26" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3014,22 +3461,25 @@
       <c r="AG26">
         <v>7.170529842376709</v>
       </c>
-      <c r="AH26" t="s">
-        <v>129</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301150</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.14</v>
@@ -3047,7 +3497,7 @@
         <v>22502.64</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27">
         <v>15</v>
@@ -3089,10 +3539,25 @@
         <v>-0.05</v>
       </c>
       <c r="X27" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Y27">
+        <v>-4.05</v>
+      </c>
+      <c r="Z27">
+        <v>44</v>
+      </c>
+      <c r="AA27">
+        <v>7.06</v>
       </c>
       <c r="AC27" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3100,22 +3565,25 @@
       <c r="AG27">
         <v>0.03501616045832634</v>
       </c>
-      <c r="AH27" t="s">
-        <v>129</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301183</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.56</v>
@@ -3133,7 +3601,7 @@
         <v>31916.31</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -3175,10 +3643,25 @@
         <v>-0.19</v>
       </c>
       <c r="X28" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y28">
+        <v>-7.03</v>
+      </c>
+      <c r="Z28">
+        <v>113.5</v>
+      </c>
+      <c r="AA28">
+        <v>6.9</v>
       </c>
       <c r="AC28" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3186,22 +3669,25 @@
       <c r="AG28">
         <v>3.223000764846802</v>
       </c>
-      <c r="AH28" t="s">
-        <v>129</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301307</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.15</v>
@@ -3219,7 +3705,7 @@
         <v>14533.56</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3261,10 +3747,25 @@
         <v>0.05</v>
       </c>
       <c r="X29" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y29">
+        <v>0.28</v>
+      </c>
+      <c r="Z29">
+        <v>41.86</v>
+      </c>
+      <c r="AA29">
+        <v>2.35</v>
       </c>
       <c r="AC29" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3272,22 +3773,25 @@
       <c r="AG29">
         <v>3.193333148956299</v>
       </c>
-      <c r="AH29" t="s">
-        <v>129</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301308</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>8.31</v>
@@ -3305,7 +3809,7 @@
         <v>161459.38</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3347,10 +3851,25 @@
         <v>0.39</v>
       </c>
       <c r="X30" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y30">
+        <v>2.56</v>
+      </c>
+      <c r="Z30">
+        <v>144.67</v>
+      </c>
+      <c r="AA30">
+        <v>4.39</v>
       </c>
       <c r="AC30" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3358,22 +3877,25 @@
       <c r="AG30">
         <v>-5.29605770111084</v>
       </c>
-      <c r="AH30" t="s">
-        <v>129</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301413</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.87</v>
@@ -3391,7 +3913,7 @@
         <v>17870.06</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K31">
         <v>22</v>
@@ -3433,10 +3955,25 @@
         <v>-0.08</v>
       </c>
       <c r="X31" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y31">
+        <v>-2.85</v>
+      </c>
+      <c r="Z31">
+        <v>177.5</v>
+      </c>
+      <c r="AA31">
+        <v>1.89</v>
       </c>
       <c r="AC31" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3444,22 +3981,25 @@
       <c r="AG31">
         <v>9.031447410583496</v>
       </c>
-      <c r="AH31" t="s">
-        <v>129</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301488</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1.33</v>
@@ -3477,7 +4017,7 @@
         <v>29310.06</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32">
         <v>19</v>
@@ -3519,10 +4059,25 @@
         <v>0.3</v>
       </c>
       <c r="X32" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y32">
+        <v>4.38</v>
+      </c>
+      <c r="Z32">
+        <v>194.52</v>
+      </c>
+      <c r="AA32">
+        <v>4.29</v>
       </c>
       <c r="AC32" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3530,22 +4085,25 @@
       <c r="AG32">
         <v>3.257871389389038</v>
       </c>
-      <c r="AH32" t="s">
-        <v>129</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301489</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>6.8</v>
@@ -3563,7 +4121,7 @@
         <v>34337.94</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -3605,10 +4163,25 @@
         <v>0.06</v>
       </c>
       <c r="X33" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y33">
+        <v>0.15</v>
+      </c>
+      <c r="Z33">
+        <v>291.88</v>
+      </c>
+      <c r="AA33">
+        <v>13.97</v>
       </c>
       <c r="AC33" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3616,22 +4189,25 @@
       <c r="AG33">
         <v>3.861988306045532</v>
       </c>
-      <c r="AH33" t="s">
-        <v>129</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301550</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>6.23</v>
@@ -3649,7 +4225,7 @@
         <v>24046.17</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3691,10 +4267,25 @@
         <v>0.22</v>
       </c>
       <c r="X34" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y34">
+        <v>1.49</v>
+      </c>
+      <c r="Z34">
+        <v>135.5</v>
+      </c>
+      <c r="AA34">
+        <v>5.5</v>
       </c>
       <c r="AC34" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3702,22 +4293,25 @@
       <c r="AG34">
         <v>3.838159799575806</v>
       </c>
-      <c r="AH34" t="s">
-        <v>129</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688028</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>11.18</v>
@@ -3735,7 +4329,7 @@
         <v>29184.48</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>11</v>
@@ -3777,10 +4371,25 @@
         <v>-0.03</v>
       </c>
       <c r="X35" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y35">
+        <v>-3.37</v>
+      </c>
+      <c r="Z35">
+        <v>51.83</v>
+      </c>
+      <c r="AA35">
+        <v>4.06</v>
       </c>
       <c r="AC35" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3788,22 +4397,25 @@
       <c r="AG35">
         <v>9.192118644714355</v>
       </c>
-      <c r="AH35" t="s">
-        <v>129</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688041</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.28</v>
@@ -3821,7 +4433,7 @@
         <v>262563.48</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3863,10 +4475,25 @@
         <v>-0.02</v>
       </c>
       <c r="X36" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y36">
+        <v>-2.51</v>
+      </c>
+      <c r="Z36">
+        <v>264.88</v>
+      </c>
+      <c r="AA36">
+        <v>10.84</v>
       </c>
       <c r="AC36" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3874,22 +4501,25 @@
       <c r="AG36">
         <v>15.29683208465576</v>
       </c>
-      <c r="AH36" t="s">
-        <v>129</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688135</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.61</v>
@@ -3907,7 +4537,7 @@
         <v>19781.2</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>15</v>
@@ -3949,10 +4579,25 @@
         <v>-0.08</v>
       </c>
       <c r="X37" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y37">
+        <v>8.07</v>
+      </c>
+      <c r="Z37">
+        <v>38.9</v>
+      </c>
+      <c r="AA37">
+        <v>14.28</v>
       </c>
       <c r="AC37" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3960,22 +4605,25 @@
       <c r="AG37">
         <v>3.619777917861938</v>
       </c>
-      <c r="AH37" t="s">
-        <v>129</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688167</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.54</v>
@@ -3993,7 +4641,7 @@
         <v>39941.45</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -4035,10 +4683,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X38" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y38">
+        <v>-0.83</v>
+      </c>
+      <c r="Z38">
+        <v>176.55</v>
+      </c>
+      <c r="AA38">
+        <v>-1.14</v>
       </c>
       <c r="AC38" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4046,22 +4709,25 @@
       <c r="AG38">
         <v>0.7084499001502991</v>
       </c>
-      <c r="AH38" t="s">
-        <v>129</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688195</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.17</v>
@@ -4079,7 +4745,7 @@
         <v>72852.25999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39">
         <v>26</v>
@@ -4121,10 +4787,25 @@
         <v>-0.02</v>
       </c>
       <c r="X39" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y39">
+        <v>0.7</v>
+      </c>
+      <c r="Z39">
+        <v>145.46</v>
+      </c>
+      <c r="AA39">
+        <v>5.67</v>
       </c>
       <c r="AC39" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4132,22 +4813,25 @@
       <c r="AG39">
         <v>0.1396331787109375</v>
       </c>
-      <c r="AH39" t="s">
-        <v>129</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688205</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.8100000000000001</v>
@@ -4165,7 +4849,7 @@
         <v>79318.75</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4207,10 +4891,25 @@
         <v>-0.24</v>
       </c>
       <c r="X40" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y40">
+        <v>-10.14</v>
+      </c>
+      <c r="Z40">
+        <v>151.35</v>
+      </c>
+      <c r="AA40">
+        <v>-0.92</v>
       </c>
       <c r="AC40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4218,22 +4917,25 @@
       <c r="AG40">
         <v>8.760185241699219</v>
       </c>
-      <c r="AH40" t="s">
-        <v>129</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688228</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>6.53</v>
@@ -4251,7 +4953,7 @@
         <v>35939.47</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -4293,10 +4995,25 @@
         <v>0.21</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y41">
+        <v>-12.29</v>
+      </c>
+      <c r="Z41">
+        <v>207</v>
+      </c>
+      <c r="AA41">
+        <v>4.02</v>
       </c>
       <c r="AC41" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4304,22 +5021,25 @@
       <c r="AG41">
         <v>3.810861110687256</v>
       </c>
-      <c r="AH41" t="s">
-        <v>129</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688400</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.71</v>
@@ -4337,7 +5057,7 @@
         <v>49664.65</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4378,8 +5098,23 @@
       <c r="W42">
         <v>0.06</v>
       </c>
+      <c r="Y42">
+        <v>-2.54</v>
+      </c>
+      <c r="Z42">
+        <v>54.47</v>
+      </c>
+      <c r="AA42">
+        <v>3.54</v>
+      </c>
       <c r="AC42" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4387,22 +5122,25 @@
       <c r="AG42">
         <v>1.793523669242859</v>
       </c>
-      <c r="AH42" t="s">
-        <v>129</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688521</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>6.36</v>
@@ -4420,7 +5158,7 @@
         <v>170140.31</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K43">
         <v>14</v>
@@ -4462,10 +5200,25 @@
         <v>0.25</v>
       </c>
       <c r="X43" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y43">
+        <v>1.48</v>
+      </c>
+      <c r="Z43">
+        <v>207.6</v>
+      </c>
+      <c r="AA43">
+        <v>12.83</v>
       </c>
       <c r="AC43" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4473,22 +5226,25 @@
       <c r="AG43">
         <v>4.695130348205566</v>
       </c>
-      <c r="AH43" t="s">
-        <v>129</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688593</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.41</v>
@@ -4506,7 +5262,7 @@
         <v>17665.27</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4548,10 +5304,25 @@
         <v>-0.43</v>
       </c>
       <c r="X44" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y44">
+        <v>-0.09</v>
+      </c>
+      <c r="Z44">
+        <v>23.44</v>
+      </c>
+      <c r="AA44">
+        <v>-3.54</v>
       </c>
       <c r="AC44" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4559,22 +5330,25 @@
       <c r="AG44">
         <v>4.409480094909668</v>
       </c>
-      <c r="AH44" t="s">
-        <v>129</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688627</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>2.01</v>
@@ -4592,7 +5366,7 @@
         <v>12610.62</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4634,10 +5408,25 @@
         <v>-0.02</v>
       </c>
       <c r="X45" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y45">
+        <v>16.97</v>
+      </c>
+      <c r="Z45">
+        <v>183.6</v>
+      </c>
+      <c r="AA45">
+        <v>22.42</v>
       </c>
       <c r="AC45" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4645,22 +5434,25 @@
       <c r="AG45">
         <v>0.6792372465133667</v>
       </c>
-      <c r="AH45" t="s">
-        <v>129</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688629</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.99</v>
@@ -4678,7 +5470,7 @@
         <v>57044.35</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -4720,10 +5512,25 @@
         <v>-0.5</v>
       </c>
       <c r="X46" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y46">
+        <v>-3.62</v>
+      </c>
+      <c r="Z46">
+        <v>108.98</v>
+      </c>
+      <c r="AA46">
+        <v>5.95</v>
       </c>
       <c r="AC46" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4731,22 +5538,25 @@
       <c r="AG46">
         <v>-0.4324652850627899</v>
       </c>
-      <c r="AH46" t="s">
-        <v>129</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688678</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>4.64</v>
@@ -4764,7 +5574,7 @@
         <v>19239.75</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4806,10 +5616,25 @@
         <v>0.31</v>
       </c>
       <c r="X47" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y47">
+        <v>1.78</v>
+      </c>
+      <c r="Z47">
+        <v>37.39</v>
+      </c>
+      <c r="AA47">
+        <v>9.91</v>
       </c>
       <c r="AC47" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4817,22 +5642,25 @@
       <c r="AG47">
         <v>3.658013343811035</v>
       </c>
-      <c r="AH47" t="s">
-        <v>129</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688766</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.32</v>
@@ -4850,7 +5678,7 @@
         <v>47004.23</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4892,10 +5720,25 @@
         <v>0.25</v>
       </c>
       <c r="X48" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y48">
+        <v>-2.05</v>
+      </c>
+      <c r="Z48">
+        <v>110.3</v>
+      </c>
+      <c r="AA48">
+        <v>1.19</v>
       </c>
       <c r="AC48" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4903,22 +5746,25 @@
       <c r="AG48">
         <v>-3.068660259246826</v>
       </c>
-      <c r="AH48" t="s">
-        <v>129</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688981</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-0.38</v>
@@ -4936,7 +5782,7 @@
         <v>290268.95</v>
       </c>
       <c r="J49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -4978,10 +5824,25 @@
         <v>-0.13</v>
       </c>
       <c r="X49" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y49">
+        <v>-0.32</v>
+      </c>
+      <c r="Z49">
+        <v>129.33</v>
+      </c>
+      <c r="AA49">
+        <v>6.99</v>
       </c>
       <c r="AC49" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4989,8 +5850,11 @@
       <c r="AG49">
         <v>-3.457027673721313</v>
       </c>
-      <c r="AH49" t="s">
-        <v>129</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
